--- a/InfoGain.xlsx
+++ b/InfoGain.xlsx
@@ -41,47 +41,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,57 +133,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -156,30 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,13 +194,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -212,13 +350,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,145 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,6 +385,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,41 +408,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,6 +436,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -479,9 +477,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,10 +493,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,133 +505,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -954,13 +954,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:29">
       <c r="B1">
@@ -1224,6 +1224,62 @@
       </c>
       <c r="AC3">
         <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>3.9</v>
+      </c>
+      <c r="C11">
+        <v>3.2</v>
+      </c>
+      <c r="D11">
+        <v>2.9</v>
+      </c>
+      <c r="E11">
+        <v>2.8</v>
+      </c>
+      <c r="F11">
+        <v>2.6</v>
+      </c>
+      <c r="G11">
+        <v>2.5</v>
+      </c>
+      <c r="H11">
+        <v>2.45</v>
+      </c>
+      <c r="I11">
+        <v>2.4</v>
+      </c>
+      <c r="J11">
+        <v>2.35</v>
+      </c>
+      <c r="K11">
+        <v>2.3</v>
+      </c>
+      <c r="L11">
+        <v>2.35</v>
+      </c>
+      <c r="M11">
+        <v>2.4</v>
+      </c>
+      <c r="N11">
+        <v>2.3</v>
+      </c>
+      <c r="O11">
+        <v>2.25</v>
+      </c>
+      <c r="P11">
+        <v>2.15</v>
+      </c>
+      <c r="Q11">
+        <v>2.25</v>
+      </c>
+      <c r="R11">
+        <v>2.2</v>
       </c>
     </row>
   </sheetData>

--- a/InfoGain.xlsx
+++ b/InfoGain.xlsx
@@ -27,10 +27,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -43,6 +43,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -64,6 +87,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -78,8 +109,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,6 +122,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,62 +170,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -172,14 +179,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,7 +194,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,7 +206,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,6 +237,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,18 +326,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,66 +344,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,19 +356,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,54 +385,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,8 +406,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,6 +452,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,10 +493,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -505,133 +505,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -692,7 +692,2135 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0873379099923722"/>
+          <c:y val="0.00441658355891153"/>
+          <c:w val="0.910373760488177"/>
+          <c:h val="0.763641544379541"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InfoGain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.833</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MaxMean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="316404566"/>
+        <c:axId val="190857948"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="316404566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>数量</a:t>
+                </a:r>
+                <a:endParaRPr altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="190857948"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="190857948"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>定位精度</a:t>
+                </a:r>
+                <a:endParaRPr b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316404566"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$21:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$22:$R$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.565</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.565</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="539245067"/>
+        <c:axId val="50937592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="539245067"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>数量</a:t>
+                </a:r>
+                <a:endParaRPr altLang="en-US" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="50937592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50937592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>定位精度</a:t>
+                </a:r>
+                <a:endParaRPr b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0146480886030725"/>
+              <c:y val="0.407685499336185"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="539245067"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>282575</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11941175" y="4451985"/>
+        <a:ext cx="8324850" cy="4457065"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133985</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="13036550" y="3211830"/>
+        <a:ext cx="9867900" cy="4808855"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -954,27 +3082,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:29">
-      <c r="B1">
-        <v>3</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-      <c r="D1">
-        <v>5</v>
-      </c>
-      <c r="E1">
-        <v>6</v>
-      </c>
+    <row r="1" spans="6:29">
       <c r="F1">
         <v>7</v>
       </c>
@@ -1052,74 +3168,65 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0.38</v>
-      </c>
-      <c r="C2">
-        <v>0.43</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.53</v>
+      <c r="E2" t="s">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.56</v>
+        <v>0.774</v>
       </c>
       <c r="G2">
-        <v>0.61</v>
+        <v>0.852</v>
       </c>
       <c r="H2">
-        <v>0.62</v>
+        <v>0.852</v>
       </c>
       <c r="I2">
-        <v>0.64</v>
+        <v>0.852</v>
       </c>
       <c r="J2">
-        <v>0.66</v>
+        <v>0.921</v>
       </c>
       <c r="K2">
-        <v>0.68</v>
+        <v>0.901</v>
       </c>
       <c r="L2">
-        <v>0.67</v>
+        <v>0.874</v>
       </c>
       <c r="M2">
-        <v>0.65</v>
+        <v>0.862</v>
       </c>
       <c r="N2">
-        <v>0.68</v>
+        <v>0.874</v>
       </c>
       <c r="O2">
-        <v>0.69</v>
+        <v>0.862</v>
       </c>
       <c r="P2">
-        <v>0.71</v>
+        <v>0.921</v>
       </c>
       <c r="Q2">
-        <v>0.69</v>
+        <v>0.882</v>
       </c>
       <c r="R2">
-        <v>0.7</v>
+        <v>0.852</v>
       </c>
       <c r="S2">
-        <v>0.69</v>
+        <v>0.862</v>
       </c>
       <c r="T2">
-        <v>0.7</v>
+        <v>0.882</v>
       </c>
       <c r="U2">
-        <v>0.7</v>
+        <v>0.901</v>
       </c>
       <c r="V2">
-        <v>0.7</v>
+        <v>0.874</v>
       </c>
       <c r="W2">
-        <v>0.7</v>
+        <v>0.874</v>
       </c>
       <c r="X2">
-        <v>0.7</v>
+        <v>0.901</v>
       </c>
       <c r="Y2">
         <v>0.7</v>
@@ -1141,77 +3248,68 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.31</v>
-      </c>
-      <c r="C3">
-        <v>0.37</v>
-      </c>
-      <c r="D3">
-        <v>0.46</v>
-      </c>
-      <c r="E3">
-        <v>0.53</v>
+      <c r="E3" t="s">
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="G3">
-        <v>0.56</v>
+        <v>0.66</v>
       </c>
       <c r="H3">
-        <v>0.56</v>
+        <v>0.66</v>
       </c>
       <c r="I3">
-        <v>0.57</v>
+        <v>0.69</v>
       </c>
       <c r="J3">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="K3">
-        <v>0.56</v>
+        <v>0.69</v>
       </c>
       <c r="L3">
-        <v>0.58</v>
+        <v>0.68</v>
       </c>
       <c r="M3">
-        <v>0.59</v>
+        <v>0.69</v>
       </c>
       <c r="N3">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="O3">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="P3">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="Q3">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="R3">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="S3">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="T3">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="U3">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="V3">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
       <c r="W3">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="X3">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="Y3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z3">
         <v>0.68</v>
@@ -1282,8 +3380,284 @@
         <v>2.2</v>
       </c>
     </row>
+    <row r="14" spans="3:18">
+      <c r="C14">
+        <v>0.44</v>
+      </c>
+      <c r="D14">
+        <v>0.53</v>
+      </c>
+      <c r="E14">
+        <v>0.54</v>
+      </c>
+      <c r="F14">
+        <v>0.55</v>
+      </c>
+      <c r="G14">
+        <v>0.58</v>
+      </c>
+      <c r="H14">
+        <v>0.63</v>
+      </c>
+      <c r="I14">
+        <v>0.64</v>
+      </c>
+      <c r="J14">
+        <v>0.65</v>
+      </c>
+      <c r="K14">
+        <v>0.65</v>
+      </c>
+      <c r="L14">
+        <v>0.68</v>
+      </c>
+      <c r="M14">
+        <v>0.7</v>
+      </c>
+      <c r="N14">
+        <v>0.71</v>
+      </c>
+      <c r="O14">
+        <v>0.71</v>
+      </c>
+      <c r="P14">
+        <v>0.72</v>
+      </c>
+      <c r="Q14">
+        <v>0.73</v>
+      </c>
+      <c r="R14">
+        <v>0.735</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="C15">
+        <v>0.41</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.52</v>
+      </c>
+      <c r="F15">
+        <v>0.53</v>
+      </c>
+      <c r="G15">
+        <v>0.56</v>
+      </c>
+      <c r="H15">
+        <v>0.6</v>
+      </c>
+      <c r="I15">
+        <v>0.61</v>
+      </c>
+      <c r="J15">
+        <v>0.63</v>
+      </c>
+      <c r="K15">
+        <v>0.63</v>
+      </c>
+      <c r="L15">
+        <v>0.65</v>
+      </c>
+      <c r="M15">
+        <v>0.67</v>
+      </c>
+      <c r="N15">
+        <v>0.68</v>
+      </c>
+      <c r="O15">
+        <v>0.69</v>
+      </c>
+      <c r="P15">
+        <v>0.69</v>
+      </c>
+      <c r="Q15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="6:12">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12">
+      <c r="E17" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.49</v>
+      </c>
+      <c r="G17">
+        <v>0.63</v>
+      </c>
+      <c r="H17">
+        <v>0.73</v>
+      </c>
+      <c r="I17">
+        <v>0.833</v>
+      </c>
+      <c r="J17">
+        <v>0.833</v>
+      </c>
+      <c r="K17">
+        <v>0.85</v>
+      </c>
+      <c r="L17">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12">
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.35</v>
+      </c>
+      <c r="G18">
+        <v>0.53</v>
+      </c>
+      <c r="H18">
+        <v>0.73</v>
+      </c>
+      <c r="I18">
+        <v>0.74</v>
+      </c>
+      <c r="J18">
+        <v>0.77</v>
+      </c>
+      <c r="K18">
+        <v>0.77</v>
+      </c>
+      <c r="L18">
+        <v>0.801</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18">
+      <c r="C21">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>9</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>11</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>15</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>18</v>
+      </c>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>20</v>
+      </c>
+      <c r="R21">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22">
+        <v>0.41</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>0.52</v>
+      </c>
+      <c r="F22">
+        <v>0.52</v>
+      </c>
+      <c r="G22">
+        <v>0.55</v>
+      </c>
+      <c r="H22">
+        <v>0.565</v>
+      </c>
+      <c r="I22">
+        <v>0.565</v>
+      </c>
+      <c r="J22">
+        <v>0.59</v>
+      </c>
+      <c r="K22">
+        <v>0.6</v>
+      </c>
+      <c r="L22">
+        <v>0.6</v>
+      </c>
+      <c r="M22">
+        <v>0.6</v>
+      </c>
+      <c r="N22">
+        <v>0.63</v>
+      </c>
+      <c r="O22">
+        <v>0.63</v>
+      </c>
+      <c r="P22">
+        <v>0.65</v>
+      </c>
+      <c r="Q22">
+        <v>0.65</v>
+      </c>
+      <c r="R22">
+        <v>0.67</v>
+      </c>
+      <c r="S22">
+        <v>0.67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>